--- a/Diseño y ejecucion/Casos de pruebas.xlsx
+++ b/Diseño y ejecucion/Casos de pruebas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudio\Documents\QA\Trabajos QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudio\Documents\QA\Trabajos QA\QAProject\Diseño y ejecucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8760" windowHeight="8748" tabRatio="867" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8760" windowHeight="8748" tabRatio="867" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="subirimg" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="DELETE" sheetId="7" r:id="rId5"/>
     <sheet name="GETxSTATUS" sheetId="3" r:id="rId6"/>
     <sheet name="POSTUPDATEFORMDATA" sheetId="5" r:id="rId7"/>
+    <sheet name="Notas" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="461">
   <si>
     <t>Identificador</t>
   </si>
@@ -3030,6 +3031,9 @@
 8.Selecionar el id de la mascota y Ingresar un tipo String
 6.Click en Send Btn.
 </t>
+  </si>
+  <si>
+    <t>se deja pendiente por modificar los casos de prueba del modulo post Update for data</t>
   </si>
 </sst>
 </file>
@@ -3363,16 +3367,6 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3478,6 +3472,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4015,7 +4019,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="6"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="5"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4026,7 +4030,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla135" displayName="Tabla135" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="5"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="4"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4037,7 +4041,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla1367" displayName="Tabla1367" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="4"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="3"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4048,7 +4052,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla13678" displayName="Tabla13678" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="3"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="2"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4059,7 +4063,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla134" displayName="Tabla134" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="2"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="1"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4070,7 +4074,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla136" displayName="Tabla136" ref="E1:F3" totalsRowShown="0">
   <autoFilter ref="E1:F3"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="1"/>
+    <tableColumn id="1" name="Nombre del Proyecto:" dataDxfId="0"/>
     <tableColumn id="2" name="Pet Store Automatizaciones QA"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -34780,7 +34784,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B34">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="I4:I34">
@@ -37181,7 +37185,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="316.8">
+    <row r="9" spans="1:28" ht="303.60000000000002">
       <c r="B9" s="38" t="s">
         <v>29</v>
       </c>
@@ -37211,7 +37215,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="316.8">
+    <row r="10" spans="1:28" ht="303.60000000000002">
       <c r="B10" s="38" t="s">
         <v>30</v>
       </c>
@@ -37291,7 +37295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -37625,4 +37629,24 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>